--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Tgm2-Sdc4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H2">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I2">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J2">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N2">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O2">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P2">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q2">
-        <v>23.858265563649</v>
+        <v>314.033423943645</v>
       </c>
       <c r="R2">
-        <v>95.433062254596</v>
+        <v>1256.13369577458</v>
       </c>
       <c r="S2">
-        <v>0.001007504886609984</v>
+        <v>0.009832368146187742</v>
       </c>
       <c r="T2">
-        <v>0.0005626619058267755</v>
+        <v>0.005631301927163726</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H3">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I3">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J3">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P3">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q3">
-        <v>1570.590590119155</v>
+        <v>2070.50835423285</v>
       </c>
       <c r="R3">
-        <v>9423.543540714933</v>
+        <v>12423.0501253971</v>
       </c>
       <c r="S3">
-        <v>0.06632408756568012</v>
+        <v>0.06482749553508686</v>
       </c>
       <c r="T3">
-        <v>0.0555600841364064</v>
+        <v>0.05569307339475637</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H4">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I4">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J4">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N4">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O4">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P4">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q4">
-        <v>1212.123216265951</v>
+        <v>960.5674911115267</v>
       </c>
       <c r="R4">
-        <v>7272.739297595707</v>
+        <v>5763.40494666916</v>
       </c>
       <c r="S4">
-        <v>0.05118645612789366</v>
+        <v>0.0300753119946982</v>
       </c>
       <c r="T4">
-        <v>0.04287919990296038</v>
+        <v>0.02583759474996784</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H5">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I5">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J5">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N5">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O5">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P5">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q5">
-        <v>2135.305420027709</v>
+        <v>3090.484078598595</v>
       </c>
       <c r="R5">
-        <v>8541.221680110835</v>
+        <v>12361.93631439438</v>
       </c>
       <c r="S5">
-        <v>0.09017129260060365</v>
+        <v>0.09676287584014073</v>
       </c>
       <c r="T5">
-        <v>0.0503580201146557</v>
+        <v>0.05541909752512275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H6">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I6">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J6">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N6">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O6">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P6">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q6">
-        <v>67.18203180653801</v>
+        <v>313.05768582333</v>
       </c>
       <c r="R6">
-        <v>403.092190839228</v>
+        <v>1878.34611493998</v>
       </c>
       <c r="S6">
-        <v>0.002837013661236241</v>
+        <v>0.009801817842679514</v>
       </c>
       <c r="T6">
-        <v>0.00237658328217973</v>
+        <v>0.008420707232457046</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.813101</v>
+        <v>69.62347</v>
       </c>
       <c r="H7">
-        <v>105.626202</v>
+        <v>139.24694</v>
       </c>
       <c r="I7">
-        <v>0.2636577117692198</v>
+        <v>0.2589780121304656</v>
       </c>
       <c r="J7">
-        <v>0.1954072982860194</v>
+        <v>0.1919618995850395</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N7">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O7">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P7">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q7">
-        <v>1234.498982875796</v>
+        <v>1522.77968026121</v>
       </c>
       <c r="R7">
-        <v>7406.993897254777</v>
+        <v>9136.678081567257</v>
       </c>
       <c r="S7">
-        <v>0.05213135692719617</v>
+        <v>0.04767814277167252</v>
       </c>
       <c r="T7">
-        <v>0.0436707489439904</v>
+        <v>0.0409601247555718</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>12.417388</v>
       </c>
       <c r="I8">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J8">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N8">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O8">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P8">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q8">
-        <v>1.869847537204</v>
+        <v>18.66935038848601</v>
       </c>
       <c r="R8">
-        <v>11.219085223224</v>
+        <v>112.016102330916</v>
       </c>
       <c r="S8">
-        <v>7.896133631017156E-05</v>
+        <v>0.0005845362693071457</v>
       </c>
       <c r="T8">
-        <v>6.614638285934518E-05</v>
+        <v>0.0005021730529571403</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>12.417388</v>
       </c>
       <c r="I9">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J9">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P9">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q9">
         <v>123.09213924438</v>
@@ -1013,10 +1013,10 @@
         <v>1107.82925319942</v>
       </c>
       <c r="S9">
-        <v>0.005198027973204513</v>
+        <v>0.003854007684130276</v>
       </c>
       <c r="T9">
-        <v>0.006531628601342715</v>
+        <v>0.004966446668452226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>12.417388</v>
       </c>
       <c r="I10">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J10">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N10">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O10">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P10">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q10">
-        <v>94.99792030884046</v>
+        <v>57.10593107620357</v>
       </c>
       <c r="R10">
-        <v>854.9812827795641</v>
+        <v>513.953379685832</v>
       </c>
       <c r="S10">
-        <v>0.004011644043176795</v>
+        <v>0.001787983363747989</v>
       </c>
       <c r="T10">
-        <v>0.005040867249251482</v>
+        <v>0.002304075328313237</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>12.417388</v>
       </c>
       <c r="I11">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J11">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N11">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O11">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P11">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q11">
-        <v>167.350621953866</v>
+        <v>183.729901769146</v>
       </c>
       <c r="R11">
-        <v>1004.103731723196</v>
+        <v>1102.379410614876</v>
       </c>
       <c r="S11">
-        <v>0.007067008661879968</v>
+        <v>0.005752572484072079</v>
       </c>
       <c r="T11">
-        <v>0.005920075349064282</v>
+        <v>0.004942014787393453</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>12.417388</v>
       </c>
       <c r="I12">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J12">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N12">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O12">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P12">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q12">
-        <v>5.265267769892445</v>
+        <v>18.611342560444</v>
       </c>
       <c r="R12">
-        <v>47.387409929032</v>
+        <v>167.502083043996</v>
       </c>
       <c r="S12">
-        <v>0.0002223457104760867</v>
+        <v>0.0005827200476021208</v>
       </c>
       <c r="T12">
-        <v>0.0002793904937445275</v>
+        <v>0.0007509191149178958</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>12.417388</v>
       </c>
       <c r="I13">
-        <v>0.02066368662471691</v>
+        <v>0.0153962950524811</v>
       </c>
       <c r="J13">
-        <v>0.02297202961864744</v>
+        <v>0.01711826046852071</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N13">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O13">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P13">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q13">
-        <v>96.75157972623825</v>
+        <v>90.52955910949466</v>
       </c>
       <c r="R13">
-        <v>870.7642175361441</v>
+        <v>814.7660319854519</v>
       </c>
       <c r="S13">
-        <v>0.004085698899669375</v>
+        <v>0.002834475203621486</v>
       </c>
       <c r="T13">
-        <v>0.005133921542385089</v>
+        <v>0.003652631516486755</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H14">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I14">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J14">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N14">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O14">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P14">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q14">
-        <v>20.563335600284</v>
+        <v>172.214921087139</v>
       </c>
       <c r="R14">
-        <v>123.380013601704</v>
+        <v>1033.289526522834</v>
       </c>
       <c r="S14">
-        <v>0.0008683640915563064</v>
+        <v>0.005392039112050983</v>
       </c>
       <c r="T14">
-        <v>0.0007274337839947598</v>
+        <v>0.00463228183560354</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H15">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I15">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J15">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P15">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q15">
-        <v>1353.68521693698</v>
+        <v>1135.46013146187</v>
       </c>
       <c r="R15">
-        <v>12183.16695243282</v>
+        <v>10219.14118315683</v>
       </c>
       <c r="S15">
-        <v>0.05716444338157121</v>
+        <v>0.03555119034034838</v>
       </c>
       <c r="T15">
-        <v>0.071830493274688</v>
+        <v>0.04581285386439979</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H16">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I16">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J16">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N16">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O16">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P16">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q16">
-        <v>1044.723742322205</v>
+        <v>526.7721270024076</v>
       </c>
       <c r="R16">
-        <v>9402.513680899845</v>
+        <v>4740.949143021669</v>
       </c>
       <c r="S16">
-        <v>0.04411738450722931</v>
+        <v>0.01649320450286691</v>
       </c>
       <c r="T16">
-        <v>0.05543609460150853</v>
+        <v>0.02125388096465345</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H17">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I17">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J17">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N17">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O17">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P17">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q17">
-        <v>1840.410479294686</v>
+        <v>1694.811542775229</v>
       </c>
       <c r="R17">
-        <v>11042.46287576812</v>
+        <v>10168.86925665137</v>
       </c>
       <c r="S17">
-        <v>0.07771824596012354</v>
+        <v>0.05306445033050022</v>
       </c>
       <c r="T17">
-        <v>0.0651050386513389</v>
+        <v>0.04558748263396094</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H18">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I18">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J18">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N18">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O18">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P18">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q18">
-        <v>57.9039018012969</v>
+        <v>171.679829435806</v>
       </c>
       <c r="R18">
-        <v>521.1351162116721</v>
+        <v>1545.118464922254</v>
       </c>
       <c r="S18">
-        <v>0.002445209768621114</v>
+        <v>0.00537528542372766</v>
       </c>
       <c r="T18">
-        <v>0.003072550233153564</v>
+        <v>0.006926833201339734</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>45.51938266666667</v>
+        <v>38.18128733333334</v>
       </c>
       <c r="H19">
-        <v>136.558148</v>
+        <v>114.543862</v>
       </c>
       <c r="I19">
-        <v>0.227245438116592</v>
+        <v>0.1420227100741861</v>
       </c>
       <c r="J19">
-        <v>0.252631054173683</v>
+        <v>0.1579069337920577</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N19">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O19">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P19">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q19">
-        <v>1064.009318504781</v>
+        <v>835.0874858350886</v>
       </c>
       <c r="R19">
-        <v>9576.083866543026</v>
+        <v>7515.787372515797</v>
       </c>
       <c r="S19">
-        <v>0.0449317904074905</v>
+        <v>0.02614654036469195</v>
       </c>
       <c r="T19">
-        <v>0.05645944362899922</v>
+        <v>0.03369360129210021</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H20">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I20">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J20">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N20">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O20">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P20">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q20">
-        <v>3.420242726637</v>
+        <v>51.897431326419</v>
       </c>
       <c r="R20">
-        <v>13.680970906548</v>
+        <v>207.589725305676</v>
       </c>
       <c r="S20">
-        <v>0.0001444325972181859</v>
+        <v>0.0016249055410561</v>
       </c>
       <c r="T20">
-        <v>8.066136600859463E-05</v>
+        <v>0.0009306337566658393</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H21">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I21">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J21">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P21">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q21">
-        <v>225.154717473015</v>
+        <v>342.17397554427</v>
       </c>
       <c r="R21">
-        <v>1350.92830483809</v>
+        <v>2053.04385326562</v>
       </c>
       <c r="S21">
-        <v>0.009508003735316718</v>
+        <v>0.01071344717178787</v>
       </c>
       <c r="T21">
-        <v>0.007964911495847217</v>
+        <v>0.009203884782596476</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H22">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I22">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J22">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N22">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O22">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P22">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q22">
-        <v>173.7660100714963</v>
+        <v>158.7442023792253</v>
       </c>
       <c r="R22">
-        <v>1042.596060428978</v>
+        <v>952.465214275352</v>
       </c>
       <c r="S22">
-        <v>0.007337922524447586</v>
+        <v>0.00497027169676555</v>
       </c>
       <c r="T22">
-        <v>0.006147021509206628</v>
+        <v>0.004269942932625327</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H23">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I23">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J23">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N23">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O23">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P23">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q23">
-        <v>306.1103839470105</v>
+        <v>510.736033191309</v>
       </c>
       <c r="R23">
-        <v>1224.441535788042</v>
+        <v>2042.944132765236</v>
       </c>
       <c r="S23">
-        <v>0.01292666086082001</v>
+        <v>0.01599111534306517</v>
       </c>
       <c r="T23">
-        <v>0.007219160653799354</v>
+        <v>0.009158607296840825</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H24">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I24">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J24">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N24">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O24">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P24">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q24">
-        <v>9.630995808727334</v>
+        <v>51.73618001292599</v>
       </c>
       <c r="R24">
-        <v>57.78597485236401</v>
+        <v>310.417080077556</v>
       </c>
       <c r="S24">
-        <v>0.0004067049767019608</v>
+        <v>0.00161985677185692</v>
       </c>
       <c r="T24">
-        <v>0.0003406991871826202</v>
+        <v>0.001391613255137911</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.571113</v>
+        <v>11.506034</v>
       </c>
       <c r="H25">
-        <v>15.142226</v>
+        <v>23.012068</v>
       </c>
       <c r="I25">
-        <v>0.03779710509947509</v>
+        <v>0.04279892704034357</v>
       </c>
       <c r="J25">
-        <v>0.02801294959650559</v>
+        <v>0.0317237871558262</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N25">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O25">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P25">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q25">
-        <v>176.9737266088147</v>
+        <v>251.6558679938619</v>
       </c>
       <c r="R25">
-        <v>1061.842359652888</v>
+        <v>1509.935207963172</v>
       </c>
       <c r="S25">
-        <v>0.007473380404970633</v>
+        <v>0.007879330515811956</v>
       </c>
       <c r="T25">
-        <v>0.006260495384461176</v>
+        <v>0.006769105131959824</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H26">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I26">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J26">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N26">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O26">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P26">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q26">
-        <v>21.081651020098</v>
+        <v>505.1347624974421</v>
       </c>
       <c r="R26">
-        <v>126.489906120588</v>
+        <v>3030.808574984653</v>
       </c>
       <c r="S26">
-        <v>0.0008902519072013611</v>
+        <v>0.01581573988507432</v>
       </c>
       <c r="T26">
-        <v>0.000745769337840067</v>
+        <v>0.01358724650615396</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H27">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I27">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J27">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O27">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P27">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q27">
-        <v>1387.80594205431</v>
+        <v>3330.49180762386</v>
       </c>
       <c r="R27">
-        <v>12490.25347848879</v>
+        <v>29974.42626861474</v>
       </c>
       <c r="S27">
-        <v>0.05860531917359706</v>
+        <v>0.1042775038057625</v>
       </c>
       <c r="T27">
-        <v>0.07364103865510782</v>
+        <v>0.13437665511233</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H28">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I28">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J28">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N28">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O28">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P28">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q28">
-        <v>1071.056844870213</v>
+        <v>1545.109515388589</v>
       </c>
       <c r="R28">
-        <v>9639.511603831917</v>
+        <v>13905.9856384973</v>
       </c>
       <c r="S28">
-        <v>0.04522939868218857</v>
+        <v>0.04837728860417307</v>
       </c>
       <c r="T28">
-        <v>0.05683340597184052</v>
+        <v>0.06234113772172377</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H29">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I29">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J29">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N29">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O29">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P29">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q29">
-        <v>1886.799506286617</v>
+        <v>4971.161736354463</v>
       </c>
       <c r="R29">
-        <v>11320.7970377197</v>
+        <v>29826.97041812678</v>
       </c>
       <c r="S29">
-        <v>0.07967719688448002</v>
+        <v>0.155646783365488</v>
       </c>
       <c r="T29">
-        <v>0.06674606353643145</v>
+        <v>0.13371560412881</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H30">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I30">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J30">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N30">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O30">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P30">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q30">
-        <v>59.36341623778711</v>
+        <v>503.565250445268</v>
       </c>
       <c r="R30">
-        <v>534.2707461400839</v>
+        <v>4532.087254007412</v>
       </c>
       <c r="S30">
-        <v>0.002506843248344055</v>
+        <v>0.0157665985544699</v>
       </c>
       <c r="T30">
-        <v>0.003149996334066034</v>
+        <v>0.02031754404281666</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>46.66673533333333</v>
+        <v>111.992012</v>
       </c>
       <c r="H31">
-        <v>140.000206</v>
+        <v>335.976036</v>
       </c>
       <c r="I31">
-        <v>0.2329733422342775</v>
+        <v>0.4165760287766647</v>
       </c>
       <c r="J31">
-        <v>0.2589988231702789</v>
+        <v>0.4631670763150101</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N31">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O31">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P31">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q31">
-        <v>1090.828529518348</v>
+        <v>2449.449305315716</v>
       </c>
       <c r="R31">
-        <v>9817.456765665127</v>
+        <v>22045.04374784144</v>
       </c>
       <c r="S31">
-        <v>0.04606433233846649</v>
+        <v>0.07669211456169685</v>
       </c>
       <c r="T31">
-        <v>0.05788254933499301</v>
+        <v>0.09882888880317574</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H32">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I32">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J32">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.451749</v>
+        <v>4.510453500000001</v>
       </c>
       <c r="N32">
-        <v>0.9034979999999999</v>
+        <v>9.020907000000001</v>
       </c>
       <c r="O32">
-        <v>0.003821260830374857</v>
+        <v>0.03796603451120199</v>
       </c>
       <c r="P32">
-        <v>0.00287943137621811</v>
+        <v>0.02933551886773785</v>
       </c>
       <c r="Q32">
-        <v>19.696199479626</v>
+        <v>150.6373159804695</v>
       </c>
       <c r="R32">
-        <v>118.177196877756</v>
+        <v>903.8238958828172</v>
       </c>
       <c r="S32">
-        <v>0.0008317460114788483</v>
+        <v>0.00471644555752569</v>
       </c>
       <c r="T32">
-        <v>0.000696758599688568</v>
+        <v>0.004051881789193647</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H33">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I33">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J33">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>89.21596500000001</v>
       </c>
       <c r="O33">
-        <v>0.2515537555136401</v>
+        <v>0.2503204615781384</v>
       </c>
       <c r="P33">
-        <v>0.2843296264967679</v>
+        <v>0.2901256630359829</v>
       </c>
       <c r="Q33">
-        <v>1296.60161092947</v>
+        <v>993.1930725079351</v>
       </c>
       <c r="R33">
-        <v>11669.41449836523</v>
+        <v>8938.737652571417</v>
       </c>
       <c r="S33">
-        <v>0.0547538736842705</v>
+        <v>0.03109681704102241</v>
       </c>
       <c r="T33">
-        <v>0.06880147033337573</v>
+        <v>0.04007274921344803</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H34">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I34">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J34">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>22.95118433333333</v>
+        <v>13.79660466666667</v>
       </c>
       <c r="N34">
-        <v>68.85355300000001</v>
+        <v>41.389814</v>
       </c>
       <c r="O34">
-        <v>0.194139802641909</v>
+        <v>0.1161307546817802</v>
       </c>
       <c r="P34">
-        <v>0.2194349969477482</v>
+        <v>0.1345975154747921</v>
       </c>
       <c r="Q34">
-        <v>1000.668745084107</v>
+        <v>460.770407372626</v>
       </c>
       <c r="R34">
-        <v>9006.018705756967</v>
+        <v>4146.933666353634</v>
       </c>
       <c r="S34">
-        <v>0.04225699675697308</v>
+        <v>0.01442669451952851</v>
       </c>
       <c r="T34">
-        <v>0.05309840771298067</v>
+        <v>0.01859088377750843</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H35">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I35">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J35">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>40.4313585</v>
+        <v>44.3885385</v>
       </c>
       <c r="N35">
-        <v>80.862717</v>
+        <v>88.77707700000001</v>
       </c>
       <c r="O35">
-        <v>0.3420013471084464</v>
+        <v>0.373633556934534</v>
       </c>
       <c r="P35">
-        <v>0.2577079799800836</v>
+        <v>0.2886984221604453</v>
       </c>
       <c r="Q35">
-        <v>1762.802136248829</v>
+        <v>1482.460754763515</v>
       </c>
       <c r="R35">
-        <v>10576.81281749298</v>
+        <v>8894.764528581089</v>
       </c>
       <c r="S35">
-        <v>0.07444094214053917</v>
+        <v>0.04641575957126774</v>
       </c>
       <c r="T35">
-        <v>0.06235962167479393</v>
+        <v>0.03987561578831732</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H36">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I36">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J36">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.272071333333333</v>
+        <v>4.496439</v>
       </c>
       <c r="N36">
-        <v>3.816214</v>
+        <v>13.489317</v>
       </c>
       <c r="O36">
-        <v>0.01076021498555478</v>
+        <v>0.03784806965674616</v>
       </c>
       <c r="P36">
-        <v>0.01216220326991628</v>
+        <v>0.04386655503336825</v>
       </c>
       <c r="Q36">
-        <v>55.46214985234533</v>
+        <v>150.169268440503</v>
       </c>
       <c r="R36">
-        <v>499.159348671108</v>
+        <v>1351.523415964527</v>
       </c>
       <c r="S36">
-        <v>0.00234209762017532</v>
+        <v>0.004701791016410047</v>
       </c>
       <c r="T36">
-        <v>0.002942983739589804</v>
+        <v>0.006058938186698995</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>43.599874</v>
+        <v>33.397377</v>
       </c>
       <c r="H37">
-        <v>130.799622</v>
+        <v>100.192131</v>
       </c>
       <c r="I37">
-        <v>0.2176627161557187</v>
+        <v>0.1242280269258589</v>
       </c>
       <c r="J37">
-        <v>0.2419778451548658</v>
+        <v>0.1381220426835457</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>23.37486266666667</v>
+        <v>21.871643</v>
       </c>
       <c r="N37">
-        <v>70.124588</v>
+        <v>65.61492899999999</v>
       </c>
       <c r="O37">
-        <v>0.1977236189200749</v>
+        <v>0.1841011226375993</v>
       </c>
       <c r="P37">
-        <v>0.223485761929266</v>
+        <v>0.2133763254276736</v>
       </c>
       <c r="Q37">
-        <v>1019.141067033971</v>
+        <v>730.4555068804108</v>
       </c>
       <c r="R37">
-        <v>9172.269603305736</v>
+        <v>6574.099561923698</v>
       </c>
       <c r="S37">
-        <v>0.04303705994228176</v>
+        <v>0.02287051922010454</v>
       </c>
       <c r="T37">
-        <v>0.05407860309443714</v>
+        <v>0.02947197392837927</v>
       </c>
     </row>
   </sheetData>
